--- a/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
+++ b/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>Hakkarainen</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>270295-994L</t>
+  </si>
+  <si>
+    <t>010181-992B</t>
+  </si>
+  <si>
+    <t>KESKEN</t>
   </si>
 </sst>
 </file>
@@ -131,11 +137,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
@@ -147,9 +154,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +492,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -637,16 +645,32 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
+++ b/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="10640" tabRatio="986"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,109 +22,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Hakkarainen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270295-9196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERUNUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASTAANOTTANUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EI_TEHTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULKAISTAVISSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270295-967R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERUUTETTU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyllä</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270295-9838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYLATTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270295-994L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAINEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARALLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010101-123N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERUUNTUNUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010181-992B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KESKEN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+  <si>
+    <t>Hakkarainen</t>
+  </si>
+  <si>
+    <t>Tuomas</t>
+  </si>
+  <si>
+    <t>270295-9196</t>
+  </si>
+  <si>
+    <t>1.1.1901</t>
+  </si>
+  <si>
+    <t>MIES</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>VASTAANOTTANUT</t>
+  </si>
+  <si>
+    <t>EI_TEHTY</t>
+  </si>
+  <si>
+    <t>JULKAISTAVISSA</t>
+  </si>
+  <si>
+    <t>270295-967R</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Kyllä</t>
+  </si>
+  <si>
+    <t>270295-9838</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>HYLATTY</t>
+  </si>
+  <si>
+    <t>270295-994L</t>
+  </si>
+  <si>
+    <t>NAINEN</t>
+  </si>
+  <si>
+    <t>VARALLA</t>
+  </si>
+  <si>
+    <t>010101-123N</t>
+  </si>
+  <si>
+    <t>PERUUNTUNUT</t>
+  </si>
+  <si>
+    <t>010181-992B</t>
+  </si>
+  <si>
+    <t>KESKEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -145,7 +122,22 @@
     <font>
       <sz val="12"/>
       <name val="Menlo Regular"/>
-      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -158,116 +150,400 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6888888888889"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.2407407407407"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.9333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.1222222222222"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="10.6888888888889"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="22.7481481481481"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="16.4185185185185"/>
-    <col collapsed="false" hidden="false" max="257" min="12" style="1" width="10.6888888888889"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="10.6888888888889"/>
+    <col min="1" max="8" width="8.625" style="1"/>
+    <col min="9" max="9" width="23.625" style="1" customWidth="1"/>
+    <col min="10" max="257" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="16" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -289,20 +565,20 @@
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" spans="1:13" ht="16" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -310,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
@@ -321,25 +597,25 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" spans="1:13" ht="16" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -347,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
@@ -358,25 +634,25 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" spans="1:13" ht="16" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -384,36 +660,36 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" spans="1:13" ht="16" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -421,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
@@ -435,22 +711,22 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" spans="1:13" ht="16" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -458,36 +734,36 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" spans="1:13" ht="19" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -502,7 +778,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" ht="19" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -517,7 +793,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" ht="19" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -532,7 +808,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" ht="19" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -548,12 +824,15 @@
       <c r="M10" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.5"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
+++ b/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="27">
   <si>
     <t xml:space="preserve">Hakkarainen</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t xml:space="preserve">JULKAISTAVISSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">045123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testitie 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helsinki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN</t>
   </si>
   <si>
     <t xml:space="preserve">270295-967R</t>
@@ -92,9 +107,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -192,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,7 +237,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,18 +270,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K:K"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="9.15185185185185"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3148148148148"/>
-    <col collapsed="false" hidden="false" max="258" min="10" style="1" width="9.15185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.15185185185185"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="9.83333333333333"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.1962962962963"/>
+    <col collapsed="false" hidden="false" max="258" min="10" style="1" width="9.83333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.83333333333333"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -291,6 +319,33 @@
       <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="O1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -300,7 +355,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
@@ -311,13 +366,13 @@
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6" t="s">
@@ -329,6 +384,33 @@
       <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="O2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -338,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
@@ -349,13 +431,13 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6" t="s">
@@ -367,6 +449,33 @@
       <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="O3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -376,24 +485,24 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6" t="s">
@@ -405,6 +514,33 @@
       <c r="N4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="O4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -414,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
@@ -428,10 +564,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6" t="s">
@@ -443,6 +579,33 @@
       <c r="N5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="O5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -452,24 +615,24 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="6" t="s">
@@ -481,70 +644,133 @@
       <c r="N6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="O6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
+++ b/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="27">
   <si>
     <t xml:space="preserve">Hakkarainen</t>
   </si>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">FIN</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyllä</t>
+  </si>
+  <si>
     <t xml:space="preserve">270295-967R</t>
   </si>
   <si>
     <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyllä</t>
   </si>
   <si>
     <t xml:space="preserve">270295-9838</t>
@@ -208,13 +208,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -270,507 +274,531 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6:W6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W7" activeCellId="0" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="9.83333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.1962962962963"/>
-    <col collapsed="false" hidden="false" max="258" min="10" style="1" width="9.83333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.83333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="10.5185185185185"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="29.162962962963"/>
+    <col collapsed="false" hidden="false" max="22" min="10" style="1" width="10.5185185185185"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="8.46666666666667"/>
+    <col collapsed="false" hidden="false" max="259" min="24" style="1" width="10.5185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="260" style="0" width="10.5185185185185"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="8" t="s">
+      <c r="O1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="7" t="s">
+      <c r="S1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="7" t="s">
+      <c r="S2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6" t="s">
+      <c r="J3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="7" t="s">
+      <c r="S3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="6" t="s">
+      <c r="J4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="O4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W4" s="7" t="s">
+      <c r="S4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="6" t="s">
+      <c r="J5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="8" t="s">
+      <c r="O5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W5" s="7" t="s">
+      <c r="S5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6" t="s">
+      <c r="J6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="8" t="s">
+      <c r="O6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="7" t="s">
+      <c r="S6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
+++ b/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="28">
   <si>
     <t xml:space="preserve">Hakkarainen</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">EI_TEHTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI</t>
   </si>
   <si>
     <t xml:space="preserve">JULKAISTAVISSA</t>
@@ -274,20 +277,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W7" activeCellId="0" sqref="W7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="10.5185185185185"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="29.162962962963"/>
-    <col collapsed="false" hidden="false" max="22" min="10" style="1" width="10.5185185185185"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="8.46666666666667"/>
-    <col collapsed="false" hidden="false" max="259" min="24" style="1" width="10.5185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="260" style="0" width="10.5185185185185"/>
+    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="11.3074074074074"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="31.5851851851852"/>
+    <col collapsed="false" hidden="false" max="23" min="10" style="1" width="11.3074074074074"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="9.14444444444444"/>
+    <col collapsed="false" hidden="false" max="260" min="25" style="1" width="11.3074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="261" style="0" width="11.3074074074074"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -325,35 +328,38 @@
       <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="9" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="9" t="s">
         <v>14</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -364,7 +370,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
@@ -375,13 +381,13 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="7" t="s">
@@ -393,35 +399,38 @@
       <c r="N2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -432,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
@@ -443,13 +452,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="7" t="s">
@@ -461,35 +470,38 @@
       <c r="N3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="9" t="s">
+      <c r="O3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="P3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -500,24 +512,24 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="7" t="s">
@@ -529,35 +541,38 @@
       <c r="N4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="9" t="s">
+      <c r="O4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="P4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -568,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
@@ -582,10 +597,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="7" t="s">
@@ -597,35 +612,38 @@
       <c r="N5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="9" t="s">
+      <c r="O5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="P5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -636,24 +654,24 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="7" t="s">
@@ -665,35 +683,38 @@
       <c r="N6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="P6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -711,7 +732,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="11"/>
+      <c r="O7" s="10"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
@@ -721,6 +742,7 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
@@ -737,7 +759,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
+      <c r="O8" s="10"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -747,6 +769,7 @@
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
@@ -763,7 +786,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="10"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
@@ -773,6 +796,7 @@
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
@@ -789,7 +813,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
+      <c r="O10" s="10"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
@@ -799,11 +823,12 @@
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>

--- a/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
+++ b/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommi.helander/src/oph/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,102 +30,100 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Hakkarainen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270295-9196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYLATTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASTAANOTTANUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EI_TEHTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULKAISTAVISSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">045123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testitie 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helsinki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyllä</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270295-967R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270295-9838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270295-994L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAINEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARALLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010101-123N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERUUNTUNUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010181-992B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KESKEN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="29">
+  <si>
+    <t>Hakkarainen</t>
+  </si>
+  <si>
+    <t>Tuomas</t>
+  </si>
+  <si>
+    <t>270295-9196</t>
+  </si>
+  <si>
+    <t>1.1.1901</t>
+  </si>
+  <si>
+    <t>MIES</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>HYLATTY</t>
+  </si>
+  <si>
+    <t>VASTAANOTTANUT</t>
+  </si>
+  <si>
+    <t>EI_TEHTY</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>JULKAISTAVISSA</t>
+  </si>
+  <si>
+    <t>045123456</t>
+  </si>
+  <si>
+    <t>Testitie 1</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Kyllä</t>
+  </si>
+  <si>
+    <t>270295-967R</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>270295-9838</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>270295-994L</t>
+  </si>
+  <si>
+    <t>NAINEN</t>
+  </si>
+  <si>
+    <t>VARALLA</t>
+  </si>
+  <si>
+    <t>010101-123N</t>
+  </si>
+  <si>
+    <t>PERUUNTUNUT</t>
+  </si>
+  <si>
+    <t>010181-992B</t>
+  </si>
+  <si>
+    <t>KESKEN</t>
+  </si>
+  <si>
+    <t>Ehto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -125,17 +133,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -158,7 +155,6 @@
     <font>
       <sz val="12"/>
       <name val="Menlo Regular"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -171,129 +167,345 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Y10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="1" width="11.3074074074074"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="31.5851851851852"/>
-    <col collapsed="false" hidden="false" max="23" min="10" style="1" width="11.3074074074074"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="9.14444444444444"/>
-    <col collapsed="false" hidden="false" max="260" min="25" style="1" width="11.3074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="261" style="0" width="11.3074074074074"/>
+    <col min="1" max="24" width="8.625" style="1"/>
+    <col min="25" max="25" width="8.625" style="2"/>
+    <col min="26" max="26" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -319,50 +531,51 @@
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>15</v>
+      <c r="U1" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>14</v>
+      <c r="W1" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="X1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -389,51 +602,54 @@
       <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>15</v>
+      <c r="U2" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>14</v>
+      <c r="W2" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="X2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -460,51 +676,54 @@
       <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>15</v>
+      <c r="U3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="9" t="s">
-        <v>14</v>
+      <c r="W3" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="X3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -531,51 +750,54 @@
       <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>15</v>
+      <c r="U4" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="9" t="s">
-        <v>14</v>
+      <c r="W4" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="X4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Z4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -602,51 +824,54 @@
       <c r="J5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="Q5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="S5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>15</v>
+      <c r="U5" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="V5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="9" t="s">
-        <v>14</v>
+      <c r="W5" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="X5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Y5" s="8" t="s">
+      <c r="Z5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -673,51 +898,54 @@
       <c r="J6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="Q6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="S6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>15</v>
+      <c r="U6" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="9" t="s">
-        <v>14</v>
+      <c r="W6" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="X6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="Z6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -733,7 +961,7 @@
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -743,8 +971,9 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -760,7 +989,7 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -770,8 +999,9 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
     </row>
-    <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -787,7 +1017,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -797,8 +1027,9 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
     </row>
-    <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -814,7 +1045,7 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -824,13 +1055,12 @@
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.5"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
+++ b/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="44300" windowHeight="18340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="32">
   <si>
     <t>Hakkarainen</t>
   </si>
@@ -112,23 +120,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -192,66 +187,106 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00DD0806"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -453,7 +488,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -472,7 +507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -502,7 +537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -528,7 +563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -554,7 +589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -580,7 +615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -606,7 +641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -632,7 +667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -658,7 +693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,7 +719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,7 +745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -723,9 +758,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -742,7 +783,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -761,7 +802,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -787,7 +828,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -813,7 +854,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +880,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -865,7 +906,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,7 +932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +958,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +984,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +1010,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +1036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,9 +1049,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1024,7 +1071,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1043,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +1146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +1172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1250,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1276,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1302,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +1328,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1294,78 +1341,58 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.625" style="1" customWidth="1"/>
-    <col min="30" max="256" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="257" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:30" ht="16" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" t="s" s="5">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s" s="5">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="6"/>
@@ -1374,465 +1401,471 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
-      <c r="P1" t="s" s="7">
+      <c r="P1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:30" ht="16" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s" s="5">
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s" s="5">
+      <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s" s="5">
+      <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s" s="5">
+      <c r="N2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="6"/>
-      <c r="P2" t="s" s="7">
+      <c r="P2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" t="s" s="2">
+      <c r="Q2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" t="s" s="2">
+      <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S2" t="s" s="2">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T2" t="s" s="2">
+      <c r="U2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U2" t="s" s="2">
+      <c r="V2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V2" t="s" s="2">
+      <c r="W2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W2" t="s" s="2">
+      <c r="X2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X2" t="s" s="2">
+      <c r="Y2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" t="s" s="2">
+      <c r="Z2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" t="s" s="2">
+      <c r="AA2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" t="s" s="2">
+      <c r="AB2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" t="s" s="2">
+      <c r="AC2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" t="s" s="2">
+      <c r="AD2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:30" ht="16" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" t="s" s="5">
+      <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s" s="5">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s" s="5">
+      <c r="J3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s" s="5">
+      <c r="K3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s" s="5">
+      <c r="L3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s" s="5">
+      <c r="M3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N3" t="s" s="5">
+      <c r="N3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="6"/>
-      <c r="P3" t="s" s="7">
+      <c r="P3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" t="s" s="2">
+      <c r="Q3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R3" t="s" s="2">
+      <c r="R3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S3" t="s" s="2">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T3" t="s" s="2">
+      <c r="U3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U3" t="s" s="2">
+      <c r="V3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V3" t="s" s="2">
+      <c r="W3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W3" t="s" s="2">
+      <c r="X3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X3" t="s" s="2">
+      <c r="Y3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" t="s" s="2">
+      <c r="Z3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" t="s" s="2">
+      <c r="AA3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" t="s" s="2">
+      <c r="AB3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" t="s" s="2">
+      <c r="AC3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:30" ht="16" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" t="s" s="5">
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s" s="5">
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s" s="5">
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s" s="5">
+      <c r="K4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s" s="5">
+      <c r="L4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M4" t="s" s="5">
+      <c r="M4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N4" t="s" s="5">
+      <c r="N4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" t="s" s="7">
+      <c r="P4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" t="s" s="2">
+      <c r="Q4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R4" t="s" s="2">
+      <c r="R4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S4" t="s" s="2">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T4" t="s" s="2">
+      <c r="U4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U4" t="s" s="2">
+      <c r="V4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V4" t="s" s="2">
+      <c r="W4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W4" t="s" s="2">
+      <c r="X4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X4" t="s" s="2">
+      <c r="Y4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" t="s" s="2">
+      <c r="Z4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" t="s" s="2">
+      <c r="AA4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" t="s" s="2">
+      <c r="AB4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:30" ht="16" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" t="s" s="5">
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" t="s" s="5">
+      <c r="I5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s" s="5">
+      <c r="J5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s" s="5">
+      <c r="K5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s" s="5">
+      <c r="L5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" t="s" s="5">
+      <c r="M5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s" s="5">
+      <c r="N5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="6"/>
-      <c r="P5" t="s" s="7">
+      <c r="P5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" t="s" s="2">
+      <c r="Q5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R5" t="s" s="2">
+      <c r="R5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S5" t="s" s="2">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T5" t="s" s="2">
+      <c r="U5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U5" t="s" s="2">
+      <c r="V5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V5" t="s" s="2">
+      <c r="W5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W5" t="s" s="2">
+      <c r="X5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X5" t="s" s="2">
+      <c r="Y5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" t="s" s="2">
+      <c r="AB5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB5" t="s" s="2">
+      <c r="AC5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC5" t="s" s="2">
+      <c r="AD5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:30" ht="16" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s" s="2">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" t="s" s="5">
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I6" t="s" s="5">
+      <c r="I6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s" s="5">
+      <c r="J6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K6" t="s" s="5">
+      <c r="K6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L6" t="s" s="5">
+      <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M6" t="s" s="5">
+      <c r="M6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N6" t="s" s="5">
+      <c r="N6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" t="s" s="7">
+      <c r="P6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" t="s" s="2">
+      <c r="Q6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R6" t="s" s="2">
+      <c r="R6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S6" t="s" s="2">
+      <c r="S6" s="2"/>
+      <c r="T6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T6" t="s" s="2">
+      <c r="U6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U6" t="s" s="2">
+      <c r="V6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V6" t="s" s="2">
+      <c r="W6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="W6" t="s" s="2">
+      <c r="X6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" t="s" s="2">
+      <c r="AB6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AD6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" ht="19" customHeight="1">
+    <row r="7" spans="1:30" ht="19" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1852,7 +1885,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="3"/>
+      <c r="T7" s="8"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -1860,10 +1893,11 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="3"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
+    <row r="8" spans="1:30" ht="19" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1883,7 +1917,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
-      <c r="T8" s="3"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1891,10 +1925,11 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="3"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
+    <row r="9" spans="1:30" ht="19" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1914,7 +1949,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="8"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -1922,10 +1957,11 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="3"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
+    <row r="10" spans="1:30" ht="19" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1945,7 +1981,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="3"/>
+      <c r="T10" s="8"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1953,14 +1989,20 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
+++ b/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terip1/IdeaProjects/Opetushallitus/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="44300" windowHeight="18340"/>
+    <workbookView xWindow="34380" yWindow="2840" windowWidth="28800" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,9 +38,6 @@
     <t>270295-9196</t>
   </si>
   <si>
-    <t>1.1.1901</t>
-  </si>
-  <si>
     <t>MIES</t>
   </si>
   <si>
@@ -115,6 +120,9 @@
   </si>
   <si>
     <t>KESKEN</t>
+  </si>
+  <si>
+    <t>01.01.1901</t>
   </si>
 </sst>
 </file>
@@ -282,6 +290,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1360,18 +1373,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="257" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="30" width="8.625" style="1" customWidth="1"/>
+    <col min="31" max="257" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" customHeight="1">
+    <row r="1" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1383,17 +1397,17 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -1402,50 +1416,50 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="S1" s="2"/>
       <c r="T1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" ht="16" customHeight="1">
+    <row r="2" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1453,83 +1467,83 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" ht="16" customHeight="1">
+    <row r="3" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1537,83 +1551,83 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="O3" s="6"/>
       <c r="P3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:30" ht="16" customHeight="1">
+    <row r="4" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1621,83 +1635,83 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5" spans="1:30" ht="16" customHeight="1">
+    <row r="5" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1705,83 +1719,83 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" spans="1:30" ht="16" customHeight="1">
+    <row r="6" spans="1:30" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1789,83 +1803,83 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="7" spans="1:30" ht="19" customHeight="1">
+    <row r="7" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1897,7 +1911,7 @@
       <c r="AC7" s="9"/>
       <c r="AD7" s="3"/>
     </row>
-    <row r="8" spans="1:30" ht="19" customHeight="1">
+    <row r="8" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1929,7 +1943,7 @@
       <c r="AC8" s="9"/>
       <c r="AD8" s="3"/>
     </row>
-    <row r="9" spans="1:30" ht="19" customHeight="1">
+    <row r="9" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1961,7 +1975,7 @@
       <c r="AC9" s="9"/>
       <c r="AD9" s="3"/>
     </row>
-    <row r="10" spans="1:30" ht="19" customHeight="1">
+    <row r="10" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1999,10 +2013,5 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
+++ b/src/test/resources/puutteellisiaTietojaAutotayttoaVarten.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terip1/IdeaProjects/Opetushallitus/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tahon1/OPH/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E27DC32-18B3-114D-A7C2-961C7EB35C26}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34380" yWindow="2840" windowWidth="28800" windowHeight="16060"/>
+    <workbookView xWindow="38400" yWindow="2840" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="38">
   <si>
     <t>Hakkarainen</t>
   </si>
@@ -83,9 +84,6 @@
     <t>SV</t>
   </si>
   <si>
-    <t>Ehto</t>
-  </si>
-  <si>
     <t>Ehto suomi</t>
   </si>
   <si>
@@ -123,12 +121,33 @@
   </si>
   <si>
     <t>01.01.1901</t>
+  </si>
+  <si>
+    <t>muu Muu</t>
+  </si>
+  <si>
+    <t>lvm Ehdollinen: lukuvuosimaksu maksettava määräaikaan mennessä, ennen kuin voit ilmoittautua</t>
+  </si>
+  <si>
+    <t>ttk Ehdollinen: tutkintotodistuskopio hakuperusteena olleesta tutkinnosta toimitettava määräaikaan mennessä</t>
+  </si>
+  <si>
+    <t>ltt Ehdollinen: lopullinen tutkintotodistus toimitettava määräaikaan mennessä</t>
+  </si>
+  <si>
+    <t>Testi suomi</t>
+  </si>
+  <si>
+    <t>Testi ruotsi</t>
+  </si>
+  <si>
+    <t>Testi englanti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -293,6 +312,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1372,11 +1394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1397,7 +1419,7 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1471,7 +1493,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -1487,16 +1509,16 @@
         <v>15</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="7" t="s">
@@ -1551,18 +1573,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>5</v>
@@ -1571,17 +1593,11 @@
         <v>15</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="6"/>
       <c r="P3" s="7" t="s">
         <v>6</v>
@@ -1635,37 +1651,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="6"/>
       <c r="P4" s="7" t="s">
         <v>6</v>
@@ -1719,11 +1729,11 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>3</v>
@@ -1733,23 +1743,17 @@
         <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="6"/>
       <c r="P5" s="7" t="s">
         <v>6</v>
@@ -1803,36 +1807,36 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="7" t="s">
